--- a/tools/worksheets/Timonel-Feature-Checker.xlsx
+++ b/tools/worksheets/Timonel-Feature-Checker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2961D6DA-4341-45D0-AA7B-F94294F303E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC12B6-B5A0-4431-9C92-9AEDADBC7364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-2025" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="915" windowWidth="22080" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timonel Features" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -93,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
   <si>
     <t>|</t>
   </si>
@@ -147,6 +151,9 @@
   </si>
   <si>
     <t>Timonel Feature Checker</t>
+  </si>
+  <si>
+    <t>APP_AUTORUN</t>
   </si>
 </sst>
 </file>
@@ -1037,28 +1044,28 @@
     </row>
     <row r="4" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
       </c>
       <c r="E4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
         <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>11</v>
@@ -1070,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="1">
-        <v>34</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1140,7 +1147,7 @@
       </c>
       <c r="N6" s="24" t="str">
         <f>IF(_xlfn.BITAND($O$4,(2^0))&gt;0,"True","False")</f>
-        <v>False</v>
+        <v>True</v>
       </c>
       <c r="Q6" s="18">
         <v>1</v>
@@ -1186,7 +1193,7 @@
       </c>
       <c r="N7" s="24" t="str">
         <f>IF(_xlfn.BITAND($O$4,(2^1))&gt;0,"True","False")</f>
-        <v>True</v>
+        <v>False</v>
       </c>
       <c r="Q7" s="18">
         <v>2</v>
@@ -1232,7 +1239,7 @@
       </c>
       <c r="N8" s="24" t="str">
         <f>IF(_xlfn.BITAND($O$4,(2^2))&gt;0,"True","False")</f>
-        <v>False</v>
+        <v>True</v>
       </c>
       <c r="Q8" s="18">
         <v>4</v>
@@ -1278,7 +1285,7 @@
       </c>
       <c r="N9" s="24" t="str">
         <f>IF(_xlfn.BITAND($O$4,(2^3))&gt;0,"True","False")</f>
-        <v>False</v>
+        <v>True</v>
       </c>
       <c r="Q9" s="18">
         <v>8</v>
@@ -1324,7 +1331,7 @@
       </c>
       <c r="N10" s="24" t="str">
         <f>IF(_xlfn.BITAND($O$4,(2^4))&gt;0,"True","False")</f>
-        <v>False</v>
+        <v>True</v>
       </c>
       <c r="Q10" s="18">
         <v>16</v>
@@ -1406,17 +1413,15 @@
       <c r="I12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CHECK_EMPTY_FL</v>
-      </c>
-      <c r="M12" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>CHECK_EMPTY_FL</v>
+      <c r="J12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="N12" s="24" t="str">
         <f>IF(_xlfn.BITAND($O$4,(2^6))&gt;0,"True","False")</f>
-        <v>False</v>
+        <v>True</v>
       </c>
       <c r="Q12" s="18">
         <v>64</v>
@@ -1462,7 +1467,7 @@
       </c>
       <c r="N13" s="24" t="str">
         <f>IF(_xlfn.BITAND($O$4,(2^7))&gt;0,"True","False")</f>
-        <v>False</v>
+        <v>True</v>
       </c>
       <c r="Q13" s="21">
         <v>128</v>
@@ -1486,11 +1491,11 @@
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <f>B4*(2^7)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C15" s="7">
         <f>C4*(2^6)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7">
         <f>D4*(2^5)</f>
@@ -1498,30 +1503,30 @@
       </c>
       <c r="E15" s="7">
         <f>E4*(2^4)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7">
         <f>F4*(2^3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7">
         <f>G4*(2^2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="7">
         <f>H4*(2^1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="8">
         <f>I4*(2^0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="1">
         <f>SUM(B15:I15)</f>
-        <v>34</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">

--- a/tools/worksheets/Timonel-Feature-Checker.xlsx
+++ b/tools/worksheets/Timonel-Feature-Checker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC12B6-B5A0-4431-9C92-9AEDADBC7364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAAF231-713B-4621-92E7-5811C79B75D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="915" windowWidth="22080" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1260" windowWidth="22080" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timonel Features" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
   <si>
     <t>|</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>USE_WDT_RESET</t>
-  </si>
-  <si>
-    <t>CHECK_EMPTY_FL</t>
   </si>
   <si>
     <t>CMD_READFLASH</t>
@@ -1039,7 +1036,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -1068,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="O4" s="1">
         <v>253</v>
@@ -1106,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
@@ -1181,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="14" t="str">
         <f t="shared" ref="J7:J13" si="0">$S7</f>
@@ -1200,7 +1197,7 @@
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T7" s="20"/>
     </row>
@@ -1224,10 +1221,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1267,13 +1264,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1292,7 +1289,7 @@
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T9" s="20"/>
     </row>
@@ -1310,16 +1307,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1353,19 +1350,19 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1396,28 +1393,28 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12" s="24" t="str">
         <f>IF(_xlfn.BITAND($O$4,(2^6))&gt;0,"True","False")</f>
@@ -1428,7 +1425,7 @@
       </c>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="T12" s="20"/>
     </row>
@@ -1437,25 +1434,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="15" t="str">
         <f t="shared" si="0"/>
@@ -1474,7 +1471,7 @@
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T13" s="23"/>
     </row>
@@ -1522,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K15" s="1">
         <f>SUM(B15:I15)</f>
